--- a/data/trans_orig/P2C_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R1-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7126</v>
+        <v>7187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00487109396865497</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01684135083280108</v>
+        <v>0.01698602365679222</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8011</v>
+        <v>8093</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004737188441856112</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01628198610779851</v>
+        <v>0.01644898138078023</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4392</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1038</v>
+        <v>1128</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9999</v>
+        <v>10122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004799098155125035</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001133999676289574</v>
+        <v>0.001232589039475686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.010926266665711</v>
+        <v>0.01106038683921426</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>421042</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>415977</v>
+        <v>415916</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>423103</v>
@@ -824,7 +824,7 @@
         <v>0.9951289060313451</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.983158649167199</v>
+        <v>0.9830139763432079</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>489703</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>484023</v>
+        <v>483941</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>492034</v>
@@ -845,7 +845,7 @@
         <v>0.9952628115581439</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9837180138922006</v>
+        <v>0.9835510186192197</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>910745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>905138</v>
+        <v>905015</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>914099</v>
+        <v>914009</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.995200901844875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9890737333342891</v>
+        <v>0.9889396131607862</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988660003237104</v>
+        <v>0.9987674109605243</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>4696</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14304</v>
+        <v>12102</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008006413632613708</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00181003049580243</v>
+        <v>0.001801241784183629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0243889070300779</v>
+        <v>0.02063427891457994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>7328</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3251</v>
+        <v>3082</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14734</v>
+        <v>15558</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01127095534290224</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005000465828148117</v>
+        <v>0.004740717764898953</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02266157673019196</v>
+        <v>0.02393009601325388</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -1003,19 +1003,19 @@
         <v>12024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5309</v>
+        <v>5974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21735</v>
+        <v>22605</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009722699819969441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004292964388239606</v>
+        <v>0.004830620755023034</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01757524467069652</v>
+        <v>0.01827908233383011</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>581813</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>572205</v>
+        <v>574407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>585447</v>
+        <v>585453</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9919935863673863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9756110929699228</v>
+        <v>0.9793657210854206</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9981899695041976</v>
+        <v>0.9981987582158164</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>603</v>
@@ -1053,19 +1053,19 @@
         <v>642834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>635428</v>
+        <v>634604</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>646911</v>
+        <v>647080</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9887290446570978</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9773384232698081</v>
+        <v>0.9760699039867459</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9949995341718518</v>
+        <v>0.9952592822351003</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1153</v>
@@ -1074,19 +1074,19 @@
         <v>1224647</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1214936</v>
+        <v>1214066</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1231362</v>
+        <v>1230697</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9902773001800306</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9824247553293034</v>
+        <v>0.9817209176661699</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9957070356117603</v>
+        <v>0.9951693792449769</v>
       </c>
     </row>
     <row r="9">
@@ -1191,19 +1191,19 @@
         <v>3148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9269</v>
+        <v>9579</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006612191027158245</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002052329940904861</v>
+        <v>0.002059489918644487</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01946790435604111</v>
+        <v>0.02012021476396924</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1212,19 +1212,19 @@
         <v>3148</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>9484</v>
+        <v>8557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003579472390159685</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001111552826239333</v>
+        <v>0.001105897804219439</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01078408185044166</v>
+        <v>0.009729493789170844</v>
       </c>
     </row>
     <row r="11">
@@ -1254,19 +1254,19 @@
         <v>472957</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>466836</v>
+        <v>466526</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>475128</v>
+        <v>475124</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9933878089728417</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805320956439592</v>
+        <v>0.9798797852360308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9979476700590951</v>
+        <v>0.9979405100813554</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>863</v>
@@ -1275,19 +1275,19 @@
         <v>876338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>870002</v>
+        <v>870929</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>878508</v>
+        <v>878513</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9964205276098403</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9892159181495584</v>
+        <v>0.990270506210829</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9988884471737607</v>
+        <v>0.9988941021957806</v>
       </c>
     </row>
     <row r="12">
@@ -1379,19 +1379,19 @@
         <v>4299</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9585</v>
+        <v>9330</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008646046657267687</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00335118205732781</v>
+        <v>0.003353194260159782</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01927684190961209</v>
+        <v>0.01876431002545013</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -1400,19 +1400,19 @@
         <v>4918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1229</v>
+        <v>1030</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12437</v>
+        <v>12866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.007200165517077155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001799753178566886</v>
+        <v>0.001507276160843505</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01820741607707489</v>
+        <v>0.01883613022372699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1421,19 +1421,19 @@
         <v>9217</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4425</v>
+        <v>4476</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17117</v>
+        <v>17278</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007809283952436354</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003749099105754326</v>
+        <v>0.003792363180955426</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01450229796963558</v>
+        <v>0.01463830808988862</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>492933</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487647</v>
+        <v>487902</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>495566</v>
+        <v>495565</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9913539533427324</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9807231580903879</v>
+        <v>0.9812356899745498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966488179426721</v>
+        <v>0.9966468057398402</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>650</v>
@@ -1471,19 +1471,19 @@
         <v>678144</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>670625</v>
+        <v>670196</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>681833</v>
+        <v>682032</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9927998344829229</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9817925839229249</v>
+        <v>0.9811638697762729</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.998200246821433</v>
+        <v>0.9984927238391564</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1175</v>
@@ -1492,19 +1492,19 @@
         <v>1171077</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1163177</v>
+        <v>1163016</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1175869</v>
+        <v>1175818</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9921907160475636</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9854977020303644</v>
+        <v>0.9853616919101114</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9962509008942456</v>
+        <v>0.9962076368190446</v>
       </c>
     </row>
     <row r="15">
@@ -1596,19 +1596,19 @@
         <v>11056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5169</v>
+        <v>5506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20045</v>
+        <v>20943</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005787746679611067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.002705986570047548</v>
+        <v>0.002882295472978949</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01049363282593224</v>
+        <v>0.01096341272816494</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1617,19 +1617,19 @@
         <v>17725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9919</v>
+        <v>10239</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>28905</v>
+        <v>29364</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007701984857692248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004310028726951489</v>
+        <v>0.004449152878521468</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01256009788601419</v>
+        <v>0.01275948252097032</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>25</v>
@@ -1638,19 +1638,19 @@
         <v>28781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19192</v>
+        <v>19405</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42459</v>
+        <v>42513</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006833754870650357</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004556869694593435</v>
+        <v>0.004607525325048698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01008152575337148</v>
+        <v>0.01009423674736567</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>1899170</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1890181</v>
+        <v>1889283</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1905057</v>
+        <v>1904720</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.994212253320389</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9895063671740678</v>
+        <v>0.9890365872718346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9972940134299524</v>
+        <v>0.9971177045270209</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2220</v>
@@ -1688,19 +1688,19 @@
         <v>2283637</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2272457</v>
+        <v>2271998</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2291443</v>
+        <v>2291123</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9922980151423078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9874399021139859</v>
+        <v>0.9872405174790297</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9956899712730487</v>
+        <v>0.9955508471214786</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4095</v>
@@ -1709,19 +1709,19 @@
         <v>4182807</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4169129</v>
+        <v>4169075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4192396</v>
+        <v>4192183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9931662451293496</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9899184742466285</v>
+        <v>0.9899057632526346</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9954431303054065</v>
+        <v>0.9953924746749514</v>
       </c>
     </row>
     <row r="18">
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7622</v>
+        <v>6707</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004690424121050654</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01613091248990487</v>
+        <v>0.01419502587522429</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2074,19 +2074,19 @@
         <v>5674</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2054</v>
+        <v>2046</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13877</v>
+        <v>12942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01102547411587059</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003991175920301593</v>
+        <v>0.003976715565901113</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02696674884940064</v>
+        <v>0.02515020248848903</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -2095,19 +2095,19 @@
         <v>7890</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3227</v>
+        <v>3114</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15192</v>
+        <v>15660</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00799302645952399</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.003269149509087074</v>
+        <v>0.003155046433222881</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0153905458479293</v>
+        <v>0.01586472320181794</v>
       </c>
     </row>
     <row r="5">
@@ -2124,7 +2124,7 @@
         <v>470296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>464890</v>
+        <v>465805</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>472512</v>
@@ -2133,7 +2133,7 @@
         <v>0.9953095758789493</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9838690875100952</v>
+        <v>0.9858049741247756</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -2145,19 +2145,19 @@
         <v>508933</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>500730</v>
+        <v>501665</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>512553</v>
+        <v>512561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9889745258841294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9730332511505994</v>
+        <v>0.9748497975115111</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9960088240796985</v>
+        <v>0.9960232844340989</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>921</v>
@@ -2166,19 +2166,19 @@
         <v>979229</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>971927</v>
+        <v>971459</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>983892</v>
+        <v>984005</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.992006973540476</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9846094541520706</v>
+        <v>0.984135276798182</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9967308504909129</v>
+        <v>0.996844953566777</v>
       </c>
     </row>
     <row r="6">
@@ -2270,19 +2270,19 @@
         <v>3832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9528</v>
+        <v>9545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005791849901716495</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001456453620841798</v>
+        <v>0.001448961755165958</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01440332920492174</v>
+        <v>0.01442891925415125</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -2291,19 +2291,19 @@
         <v>4191</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11682</v>
+        <v>11384</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005612113274746548</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.001473425727381994</v>
+        <v>0.001465510817490161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01564132792728144</v>
+        <v>0.01524220707065833</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2312,19 +2312,19 @@
         <v>8023</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3136</v>
+        <v>3843</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16080</v>
+        <v>16666</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005696537957861214</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002226560415067834</v>
+        <v>0.00272878376040939</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01141713668227005</v>
+        <v>0.01183328806358855</v>
       </c>
     </row>
     <row r="8">
@@ -2341,19 +2341,19 @@
         <v>657707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>652011</v>
+        <v>651994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>660575</v>
+        <v>660580</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9942081500982836</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9855966707950783</v>
+        <v>0.9855710807458486</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9985435463791581</v>
+        <v>0.998551038244834</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>678</v>
@@ -2362,19 +2362,19 @@
         <v>742659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>735168</v>
+        <v>735466</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>745750</v>
+        <v>745755</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9943878867252535</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9843586720727189</v>
+        <v>0.9847577929293417</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.998526574272618</v>
+        <v>0.9985344891825099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1279</v>
@@ -2383,19 +2383,19 @@
         <v>1400366</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1392309</v>
+        <v>1391723</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1405253</v>
+        <v>1404546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9943034620421388</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9885828633177304</v>
+        <v>0.9881667119364114</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9977734395849324</v>
+        <v>0.9972712162395906</v>
       </c>
     </row>
     <row r="9">
@@ -2487,19 +2487,19 @@
         <v>4848</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1831</v>
+        <v>951</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12901</v>
+        <v>12768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0106028230599689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004005580199380321</v>
+        <v>0.002079598653336864</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02821560315139283</v>
+        <v>0.02792544964235662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -2508,19 +2508,19 @@
         <v>6025</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2099</v>
+        <v>2108</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14348</v>
+        <v>14080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01133107288662016</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003946656315014672</v>
+        <v>0.003964097032852202</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.026984900828119</v>
+        <v>0.026480239320326</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -2529,19 +2529,19 @@
         <v>10873</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4957</v>
+        <v>5159</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21600</v>
+        <v>20678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01099437560974105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00501276353276635</v>
+        <v>0.005217092034426721</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02184140873601174</v>
+        <v>0.0209093480181943</v>
       </c>
     </row>
     <row r="11">
@@ -2558,19 +2558,19 @@
         <v>452381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>444328</v>
+        <v>444461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>455398</v>
+        <v>456278</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9893971769400312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9717843968486073</v>
+        <v>0.9720745503576436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9959944198006198</v>
+        <v>0.9979204013466632</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>482</v>
@@ -2579,19 +2579,19 @@
         <v>525696</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>517373</v>
+        <v>517641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529622</v>
+        <v>529613</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9886689271133798</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9730150991718807</v>
+        <v>0.9735197606796732</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960533436849853</v>
+        <v>0.9960359029671478</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>897</v>
@@ -2600,19 +2600,19 @@
         <v>978077</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>967350</v>
+        <v>968272</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>983993</v>
+        <v>983791</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.989005624390259</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.978158591263988</v>
+        <v>0.9790906519818059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9949872364672336</v>
+        <v>0.9947829079655732</v>
       </c>
     </row>
     <row r="12">
@@ -2704,19 +2704,19 @@
         <v>5805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1945</v>
+        <v>1960</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13490</v>
+        <v>13487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0106305906474201</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003561496827995364</v>
+        <v>0.003590161181787138</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02470456899927644</v>
+        <v>0.02470017198414574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>12</v>
@@ -2725,19 +2725,19 @@
         <v>12729</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6813</v>
+        <v>6894</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21968</v>
+        <v>21534</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01759023217676332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009415249515026055</v>
+        <v>0.009526603509014539</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03035771719034495</v>
+        <v>0.02975701078738851</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -2746,19 +2746,19 @@
         <v>18534</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10884</v>
+        <v>10945</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>29843</v>
+        <v>27812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01459716899917476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008572227140880436</v>
+        <v>0.008620347647389844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02350384832149116</v>
+        <v>0.02190455437573954</v>
       </c>
     </row>
     <row r="14">
@@ -2775,19 +2775,19 @@
         <v>540241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>532556</v>
+        <v>532559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>544101</v>
+        <v>544086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9893694093525799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9752954310007235</v>
+        <v>0.9752998280158541</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9964385031720047</v>
+        <v>0.9964098388182129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>681</v>
@@ -2796,19 +2796,19 @@
         <v>710923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>701684</v>
+        <v>702118</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>716839</v>
+        <v>716758</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9824097678232366</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.969642282809655</v>
+        <v>0.9702429892126114</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.990584750484974</v>
+        <v>0.9904733964909854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1200</v>
@@ -2817,19 +2817,19 @@
         <v>1251164</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1239855</v>
+        <v>1241886</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1258814</v>
+        <v>1258753</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9854028310008253</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9764961516785089</v>
+        <v>0.9780954456242607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9914277728591195</v>
+        <v>0.9913796523526102</v>
       </c>
     </row>
     <row r="15">
@@ -2921,19 +2921,19 @@
         <v>16701</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9629</v>
+        <v>9436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28110</v>
+        <v>28510</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.007813746960170263</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004505239760208592</v>
+        <v>0.004415000304714328</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01315199217844607</v>
+        <v>0.01333917488657215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -2942,19 +2942,19 @@
         <v>28619</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19750</v>
+        <v>19241</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>42842</v>
+        <v>42159</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01137119555838447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007847054920639789</v>
+        <v>0.007644978330669619</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0170221942576053</v>
+        <v>0.01675089250980118</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>40</v>
@@ -2963,19 +2963,19 @@
         <v>45320</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>31955</v>
+        <v>32400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61779</v>
+        <v>61200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009737509994737164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00686581683101294</v>
+        <v>0.006961567379129131</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01327400847965503</v>
+        <v>0.01314953955671335</v>
       </c>
     </row>
     <row r="17">
@@ -2992,19 +2992,19 @@
         <v>2120625</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2109216</v>
+        <v>2108816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2127697</v>
+        <v>2127890</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9921862530398298</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9868480078215537</v>
+        <v>0.9866608251134279</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954947602397914</v>
+        <v>0.9955849996952858</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2318</v>
@@ -3013,19 +3013,19 @@
         <v>2488211</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2473988</v>
+        <v>2474671</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2497080</v>
+        <v>2497589</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9886288044416155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9829778057423931</v>
+        <v>0.983249107490199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9921529450793599</v>
+        <v>0.9923550216693304</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4297</v>
@@ -3034,19 +3034,19 @@
         <v>4608836</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4592377</v>
+        <v>4592956</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4622201</v>
+        <v>4621756</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9902624900052628</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9867259915203449</v>
+        <v>0.9868504604432862</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9931341831689871</v>
+        <v>0.9930384326208708</v>
       </c>
     </row>
     <row r="18">
@@ -3378,19 +3378,19 @@
         <v>7085</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3009</v>
+        <v>2967</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13468</v>
+        <v>13436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01780402407863994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007560496399462166</v>
+        <v>0.00745594110341141</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03384306068505554</v>
+        <v>0.03376204421365075</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5621</v>
+        <v>5648</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004142270903606656</v>
@@ -3411,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01258886525662478</v>
+        <v>0.01265117423852683</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -3420,19 +3420,19 @@
         <v>8935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3984</v>
+        <v>4156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16297</v>
+        <v>15518</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01058076108468263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004717709205579125</v>
+        <v>0.004921230292586215</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01929890943681103</v>
+        <v>0.01837700517622652</v>
       </c>
     </row>
     <row r="5">
@@ -3449,19 +3449,19 @@
         <v>390876</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>384493</v>
+        <v>384525</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>394952</v>
+        <v>394994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9821959759213601</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9661569393149446</v>
+        <v>0.9662379557863491</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9924395036005378</v>
+        <v>0.9925440588965886</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>434</v>
@@ -3470,7 +3470,7 @@
         <v>444619</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>440847</v>
+        <v>440820</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>446468</v>
@@ -3479,7 +3479,7 @@
         <v>0.9958577290963934</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9874111347433753</v>
+        <v>0.9873488257614731</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -3491,19 +3491,19 @@
         <v>835494</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>828132</v>
+        <v>828911</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>840445</v>
+        <v>840273</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9894192389153174</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9807010905631889</v>
+        <v>0.9816229948237735</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9952822907944209</v>
+        <v>0.9950787697074137</v>
       </c>
     </row>
     <row r="6">
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9966</v>
+        <v>10132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004506101036099266</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01711337858450354</v>
+        <v>0.01739949573251166</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -3616,19 +3616,19 @@
         <v>5444</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12164</v>
+        <v>11843</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007592500236176612</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002888424295516698</v>
+        <v>0.002883747582809549</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01696427966575896</v>
+        <v>0.01651773783737506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -3637,19 +3637,19 @@
         <v>8068</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3354</v>
+        <v>3526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16267</v>
+        <v>16049</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.006209258315292386</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002580931395289949</v>
+        <v>0.002713518052454594</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01251930376510832</v>
+        <v>0.01235132608198514</v>
       </c>
     </row>
     <row r="8">
@@ -3666,7 +3666,7 @@
         <v>579709</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>572367</v>
+        <v>572201</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>582333</v>
@@ -3675,7 +3675,7 @@
         <v>0.9954938989639007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9828866214154969</v>
+        <v>0.9826005042674886</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -3687,19 +3687,19 @@
         <v>711570</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>704850</v>
+        <v>705171</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>714943</v>
+        <v>714946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9924074997638234</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9830357203342415</v>
+        <v>0.9834822621626255</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9971115757044833</v>
+        <v>0.9971162524171905</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1214</v>
@@ -3708,19 +3708,19 @@
         <v>1291279</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1283080</v>
+        <v>1283298</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1295993</v>
+        <v>1295821</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9937907416847076</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9874806962348914</v>
+        <v>0.9876486739180156</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.99741906860471</v>
+        <v>0.9972864819475461</v>
       </c>
     </row>
     <row r="9">
@@ -3815,7 +3815,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7191</v>
+        <v>6982</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005046364803287243</v>
@@ -3824,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01728024176275093</v>
+        <v>0.01677755661555634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3833,19 +3833,19 @@
         <v>6526</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2306</v>
+        <v>2486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14531</v>
+        <v>15029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01271386067559638</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004493268780442457</v>
+        <v>0.004843702418431462</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02830906424643691</v>
+        <v>0.02927866084710844</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -3854,19 +3854,19 @@
         <v>8626</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4063</v>
+        <v>4040</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16079</v>
+        <v>16811</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009280853008071523</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004371136963113556</v>
+        <v>0.004347003841998311</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01729957226377472</v>
+        <v>0.01808710293056193</v>
       </c>
     </row>
     <row r="11">
@@ -3883,7 +3883,7 @@
         <v>414057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408966</v>
+        <v>409175</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>416157</v>
@@ -3892,7 +3892,7 @@
         <v>0.9949536351967128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9827197582372489</v>
+        <v>0.9832224433844434</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3904,19 +3904,19 @@
         <v>506788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>498783</v>
+        <v>498285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>511008</v>
+        <v>510828</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9872861393244036</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9716909357535639</v>
+        <v>0.9707213391528915</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9955067312195576</v>
+        <v>0.9951562975815695</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>857</v>
@@ -3925,19 +3925,19 @@
         <v>920845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>913392</v>
+        <v>912660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>925408</v>
+        <v>925431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9907191469919284</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9827004277362258</v>
+        <v>0.9819128970694384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9956288630368865</v>
+        <v>0.9956529961580017</v>
       </c>
     </row>
     <row r="12">
@@ -4029,19 +4029,19 @@
         <v>5809</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2175</v>
+        <v>2698</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12500</v>
+        <v>12069</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01160657766640623</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004345389543168206</v>
+        <v>0.005390470367603253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02497697475831744</v>
+        <v>0.02411565549023222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -4050,19 +4050,19 @@
         <v>8720</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4021</v>
+        <v>4104</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17407</v>
+        <v>16576</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01324702120162022</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006108238919884912</v>
+        <v>0.006235143352925605</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02644576242415421</v>
+        <v>0.02518366262326273</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>14</v>
@@ -4071,19 +4071,19 @@
         <v>14528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8444</v>
+        <v>8151</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24654</v>
+        <v>24583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0125384651107953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007287687868253521</v>
+        <v>0.007034775581627268</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0212775267559991</v>
+        <v>0.02121603693667953</v>
       </c>
     </row>
     <row r="14">
@@ -4100,19 +4100,19 @@
         <v>494668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487977</v>
+        <v>488408</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>498302</v>
+        <v>497779</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9883934223335937</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9750230252416827</v>
+        <v>0.9758843445097676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9956546104568318</v>
+        <v>0.9946095296323967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>591</v>
@@ -4121,19 +4121,19 @@
         <v>649504</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640817</v>
+        <v>641648</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>654203</v>
+        <v>654120</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9867529787983798</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.973554237575846</v>
+        <v>0.9748163373767375</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9938917610801151</v>
+        <v>0.9937648566470744</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1093</v>
@@ -4142,19 +4142,19 @@
         <v>1144173</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1134047</v>
+        <v>1134118</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1150257</v>
+        <v>1150550</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9874615348892047</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9787224732440009</v>
+        <v>0.9787839630633195</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9927123121317464</v>
+        <v>0.9929652244183726</v>
       </c>
     </row>
     <row r="15">
@@ -4246,19 +4246,19 @@
         <v>17618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10254</v>
+        <v>10913</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27730</v>
+        <v>28423</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009287789166760759</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005405364468657178</v>
+        <v>0.00575321301657449</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01461833447142761</v>
+        <v>0.01498350892035928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -4267,19 +4267,19 @@
         <v>22539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14030</v>
+        <v>14055</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34622</v>
+        <v>34325</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009652607351617387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006008423819901002</v>
+        <v>0.006019305364634413</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01482713500032567</v>
+        <v>0.01470027436950417</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -4288,19 +4288,19 @@
         <v>40157</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29375</v>
+        <v>29162</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55506</v>
+        <v>55380</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.009489081278261291</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006941344259526736</v>
+        <v>0.006890829571809961</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0131159812803208</v>
+        <v>0.01308625515934571</v>
       </c>
     </row>
     <row r="17">
@@ -4317,19 +4317,19 @@
         <v>1879310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1869198</v>
+        <v>1868505</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1886674</v>
+        <v>1886015</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9907122108332392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9853816655285723</v>
+        <v>0.985016491079641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9945946355313429</v>
+        <v>0.9942467869834255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2160</v>
@@ -4338,19 +4338,19 @@
         <v>2312481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2300398</v>
+        <v>2300695</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2320990</v>
+        <v>2320965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9903473926483826</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9851728649996739</v>
+        <v>0.9852997256304958</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9939915761800989</v>
+        <v>0.993980694635366</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3985</v>
@@ -4359,19 +4359,19 @@
         <v>4191791</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4176442</v>
+        <v>4176568</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4202573</v>
+        <v>4202786</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9905109187217387</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.986884018719679</v>
+        <v>0.9869137448406542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9930586557404733</v>
+        <v>0.9931091704281899</v>
       </c>
     </row>
     <row r="18">
@@ -4703,19 +4703,19 @@
         <v>27196</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19688</v>
+        <v>19897</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36857</v>
+        <v>36360</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2504709584732031</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1813190060764091</v>
+        <v>0.1832447140498399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3394392804020266</v>
+        <v>0.3348684626290813</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>91</v>
@@ -4724,19 +4724,19 @@
         <v>39132</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31967</v>
+        <v>31989</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47980</v>
+        <v>47364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.264865161801477</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2163688539258623</v>
+        <v>0.2165203575123087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3247586121333921</v>
+        <v>0.3205848138455143</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>131</v>
@@ -4745,19 +4745,19 @@
         <v>66328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55850</v>
+        <v>55890</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78570</v>
+        <v>78900</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2587676524261088</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2178906905139802</v>
+        <v>0.2180451511271653</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3065265676101242</v>
+        <v>0.3078163448956561</v>
       </c>
     </row>
     <row r="5">
@@ -4774,19 +4774,19 @@
         <v>81385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71724</v>
+        <v>72221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88893</v>
+        <v>88684</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7495290415267968</v>
+        <v>0.749529041526797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.660560719597973</v>
+        <v>0.6651315373709187</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8186809939235908</v>
+        <v>0.8167552859501599</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>171</v>
@@ -4795,19 +4795,19 @@
         <v>108610</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>99762</v>
+        <v>100378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>115775</v>
+        <v>115753</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.735134838198523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6752413878666078</v>
+        <v>0.6794151861544855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7836311460741373</v>
+        <v>0.7834796424876909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -4816,19 +4816,19 @@
         <v>189995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177753</v>
+        <v>177423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>200473</v>
+        <v>200433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7412323475738913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6934734323898762</v>
+        <v>0.6921836551043441</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7821093094860199</v>
+        <v>0.7819548488728348</v>
       </c>
     </row>
     <row r="6">
@@ -4920,19 +4920,19 @@
         <v>24923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17046</v>
+        <v>16648</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38626</v>
+        <v>37899</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1287597485952274</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08806369714888726</v>
+        <v>0.08600943455761245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1995547896136017</v>
+        <v>0.1957988436957886</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -4941,19 +4941,19 @@
         <v>40114</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31735</v>
+        <v>32030</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49422</v>
+        <v>49360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1461910400253621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.115654610676051</v>
+        <v>0.11673084051919</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1801130914750106</v>
+        <v>0.1798862153427581</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -4962,19 +4962,19 @@
         <v>65037</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52600</v>
+        <v>52941</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80904</v>
+        <v>79807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1389809293600732</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1124038031953701</v>
+        <v>0.1131313314985147</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1728873468024873</v>
+        <v>0.1705438503185649</v>
       </c>
     </row>
     <row r="8">
@@ -4991,19 +4991,19 @@
         <v>168638</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>154935</v>
+        <v>155662</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176515</v>
+        <v>176913</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8712402514047727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8004452103863983</v>
+        <v>0.8042011563042113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9119363028511128</v>
+        <v>0.9139905654423875</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>323</v>
@@ -5012,19 +5012,19 @@
         <v>234282</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>224974</v>
+        <v>225036</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>242661</v>
+        <v>242366</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8538089599746378</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8198869085249888</v>
+        <v>0.8201137846572415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8843453893239488</v>
+        <v>0.8832691594808099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>480</v>
@@ -5033,19 +5033,19 @@
         <v>402921</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>387054</v>
+        <v>388151</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>415358</v>
+        <v>415017</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8610190706399269</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8271126531975127</v>
+        <v>0.829456149681435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.88759619680463</v>
+        <v>0.8868686685014852</v>
       </c>
     </row>
     <row r="9">
@@ -5137,19 +5137,19 @@
         <v>16266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9821</v>
+        <v>9763</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25713</v>
+        <v>27234</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1393624681397949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08414699639363063</v>
+        <v>0.08364883138068879</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2203007968215749</v>
+        <v>0.2333360123079063</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5158,19 +5158,19 @@
         <v>17697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11845</v>
+        <v>11925</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25299</v>
+        <v>24560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1135320926844861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07599253990183583</v>
+        <v>0.076504762533028</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1623054053688152</v>
+        <v>0.1575607563868008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -5179,19 +5179,19 @@
         <v>33963</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24901</v>
+        <v>24710</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>47501</v>
+        <v>47419</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1245920232223232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09134985144149305</v>
+        <v>0.09064839154612207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1742567351850787</v>
+        <v>0.1739560480309956</v>
       </c>
     </row>
     <row r="11">
@@ -5208,19 +5208,19 @@
         <v>100451</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91004</v>
+        <v>89483</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106896</v>
+        <v>106954</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.860637531860205</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7796992031784238</v>
+        <v>0.7666639876920941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9158530036063696</v>
+        <v>0.9163511686193112</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -5229,19 +5229,19 @@
         <v>138178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>130576</v>
+        <v>131315</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>144030</v>
+        <v>143950</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8864679073155139</v>
+        <v>0.8864679073155138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8376945946311853</v>
+        <v>0.8424392436132002</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.924007460098164</v>
+        <v>0.9234952374669724</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>255</v>
@@ -5250,19 +5250,19 @@
         <v>238629</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225091</v>
+        <v>225173</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>247691</v>
+        <v>247882</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8754079767776769</v>
+        <v>0.8754079767776768</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8257432648149211</v>
+        <v>0.8260439519690038</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.908650148558507</v>
+        <v>0.9093516084538774</v>
       </c>
     </row>
     <row r="12">
@@ -5354,19 +5354,19 @@
         <v>16443</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10417</v>
+        <v>10523</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24179</v>
+        <v>24392</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1158248482615158</v>
+        <v>0.1158248482615159</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07337505323920482</v>
+        <v>0.07412711982404364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1703148789612379</v>
+        <v>0.17181926905608</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>57</v>
@@ -5375,19 +5375,19 @@
         <v>34624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26716</v>
+        <v>26564</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>44206</v>
+        <v>44104</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1635741652179657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1262118487348343</v>
+        <v>0.125494487994905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2088394481604867</v>
+        <v>0.2083612365867384</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -5396,19 +5396,19 @@
         <v>51067</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40816</v>
+        <v>40915</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>63528</v>
+        <v>63342</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1444056812623767</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1154177176333473</v>
+        <v>0.1156960462307759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.17964080815783</v>
+        <v>0.1791155975244569</v>
       </c>
     </row>
     <row r="14">
@@ -5425,19 +5425,19 @@
         <v>125521</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>117785</v>
+        <v>117572</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>131547</v>
+        <v>131441</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8841751517384842</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.829685121038762</v>
+        <v>0.8281807309439201</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.926624946760795</v>
+        <v>0.9258728801759565</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>247</v>
@@ -5446,19 +5446,19 @@
         <v>177049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167467</v>
+        <v>167569</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>184957</v>
+        <v>185109</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8364258347820341</v>
+        <v>0.8364258347820342</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7911605518395133</v>
+        <v>0.7916387634132612</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8737881512651661</v>
+        <v>0.8745055120050947</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>379</v>
@@ -5467,19 +5467,19 @@
         <v>302571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290110</v>
+        <v>290296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>312822</v>
+        <v>312723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8555943187376234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.82035919184217</v>
+        <v>0.8208844024755431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8845822823666527</v>
+        <v>0.8843039537692242</v>
       </c>
     </row>
     <row r="15">
@@ -5571,19 +5571,19 @@
         <v>84828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68768</v>
+        <v>67346</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103029</v>
+        <v>102301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1512565054684442</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.122620093383172</v>
+        <v>0.1200841395602265</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1837095142697129</v>
+        <v>0.1824120451775419</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>247</v>
@@ -5592,19 +5592,19 @@
         <v>131567</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115755</v>
+        <v>116038</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147512</v>
+        <v>148040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1666067667823012</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1465834285035847</v>
+        <v>0.1469421461275396</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1867976052128873</v>
+        <v>0.1874661648998225</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>357</v>
@@ -5613,19 +5613,19 @@
         <v>216395</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>193883</v>
+        <v>193737</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>240774</v>
+        <v>243289</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1602322958500629</v>
+        <v>0.1602322958500628</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1435625940946736</v>
+        <v>0.1434546527711997</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1782839354945552</v>
+        <v>0.1801460764318168</v>
       </c>
     </row>
     <row r="17">
@@ -5642,19 +5642,19 @@
         <v>475996</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>457795</v>
+        <v>458523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>492056</v>
+        <v>493478</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.848743494531556</v>
+        <v>0.8487434945315558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8162904857302874</v>
+        <v>0.8175879548224581</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.877379906616828</v>
+        <v>0.8799158604397735</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>909</v>
@@ -5663,19 +5663,19 @@
         <v>658120</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>642175</v>
+        <v>641647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>673932</v>
+        <v>673649</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8333932332176986</v>
+        <v>0.8333932332176989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8132023947871128</v>
+        <v>0.8125338351001774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8534165714964154</v>
+        <v>0.8530578538724601</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1369</v>
@@ -5684,19 +5684,19 @@
         <v>1134116</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1109737</v>
+        <v>1107222</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1156628</v>
+        <v>1156774</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8397677041499373</v>
+        <v>0.8397677041499371</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8217160645054445</v>
+        <v>0.8198539235681825</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8564374059053262</v>
+        <v>0.8565453472288002</v>
       </c>
     </row>
     <row r="18">
